--- a/My Sets/Red Alarm (Virtual Boy)/Red Alarm - Plan.xlsx
+++ b/My Sets/Red Alarm (Virtual Boy)/Red Alarm - Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egrea\Dropbox\RetroArch\Achievements\Red Alarm\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Red Alarm (Virtual Boy)\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -1043,8 +1043,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,8 +1120,8 @@
         <v>37</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>H2&amp;" ("&amp; IF(F2="Easy","on easy+ difficulty",IF(F2="Normal","on normal+ difficulty",IF(F2="Hard","on hard difficulty",""))) &amp;IF(G2="Game Over",", resets on new game",IF(G2="Session",", resets on new session",""))&amp;")"</f>
-        <v>Complete stage 1 (on easy+ difficulty)</v>
+        <f>H2&amp;" "&amp; IF(F2="Easy","on easy+ difficulty",IF(F2="Normal","on normal+ difficulty",IF(F2="Hard","on hard difficulty",""))) &amp;IF(G2="Game Over",", resets on new game",IF(G2="Session",", resets on new session",""))</f>
+        <v>Complete stage 1 on easy+ difficulty</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -1152,8 +1152,8 @@
         <v>38</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I61" si="0">H3&amp;" ("&amp; IF(F3="Easy","on easy+ difficulty",IF(F3="Normal","on normal+ difficulty",IF(F3="Hard","on hard difficulty",""))) &amp;IF(G3="Game Over",", resets on new game",IF(G3="Session",", resets on new session",""))&amp;")"</f>
-        <v>Complete stage 2 (on easy+ difficulty)</v>
+        <f t="shared" ref="I3:I7" si="0">H3&amp;" "&amp; IF(F3="Easy","on easy+ difficulty",IF(F3="Normal","on normal+ difficulty",IF(F3="Hard","on hard difficulty",""))) &amp;IF(G3="Game Over",", resets on new game",IF(G3="Session",", resets on new session",""))</f>
+        <v>Complete stage 2 on easy+ difficulty</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Complete stage 3 (on easy+ difficulty)</v>
+        <v>Complete stage 3 on easy+ difficulty</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Complete stage 4 (on easy+ difficulty)</v>
+        <v>Complete stage 4 on easy+ difficulty</v>
       </c>
       <c r="J5" s="5"/>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Complete stage 5 (on easy+ difficulty)</v>
+        <v>Complete stage 5 on easy+ difficulty</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Complete stage 6 (on easy+ difficulty)</v>
+        <v>Complete stage 6 on easy+ difficulty</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -1312,8 +1312,8 @@
         <v>48</v>
       </c>
       <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete stage 1 without dying (on hard difficulty)</v>
+        <f>H8&amp;" "&amp; IF(F8="Easy","on easy+ difficulty",IF(F8="Normal","on normal+ difficulty",IF(F8="Hard","on hard difficulty",""))) &amp;IF(G8="Game Over",", resets on new game",IF(G8="Session",", resets on new session",""))</f>
+        <v>Complete stage 1 without dying on hard difficulty</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -1344,8 +1344,8 @@
         <v>49</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete stage 2 without dying (on hard difficulty)</v>
+        <f t="shared" ref="I9:I13" si="1">H9&amp;" "&amp; IF(F9="Easy","on easy+ difficulty",IF(F9="Normal","on normal+ difficulty",IF(F9="Hard","on hard difficulty",""))) &amp;IF(G9="Game Over",", resets on new game",IF(G9="Session",", resets on new session",""))</f>
+        <v>Complete stage 2 without dying on hard difficulty</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -1376,8 +1376,8 @@
         <v>50</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete stage 3 without dying (on hard difficulty)</v>
+        <f t="shared" si="1"/>
+        <v>Complete stage 3 without dying on hard difficulty</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -1408,8 +1408,8 @@
         <v>51</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete stage 4 without dying (on hard difficulty)</v>
+        <f t="shared" si="1"/>
+        <v>Complete stage 4 without dying on hard difficulty</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -1440,8 +1440,8 @@
         <v>52</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete stage 5 without dying (on hard difficulty)</v>
+        <f t="shared" si="1"/>
+        <v>Complete stage 5 without dying on hard difficulty</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -1472,8 +1472,8 @@
         <v>53</v>
       </c>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete stage 6 without dying (on hard difficulty)</v>
+        <f t="shared" si="1"/>
+        <v>Complete stage 6 without dying on hard difficulty</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -1504,8 +1504,8 @@
         <v>91</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete the game without dying (on easy+ difficulty)</v>
+        <f>H14&amp;" "&amp; IF(F14="Easy","on easy+ difficulty",IF(F14="Normal","on normal+ difficulty",IF(F14="Hard","on hard difficulty",""))) &amp;IF(G14="Game Over",", resets on new game",IF(G14="Session",", resets on new session",""))</f>
+        <v>Complete the game without dying on easy+ difficulty</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -1536,8 +1536,8 @@
         <v>91</v>
       </c>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete the game without dying (on normal+ difficulty)</v>
+        <f t="shared" ref="I15:I16" si="2">H15&amp;" "&amp; IF(F15="Easy","on easy+ difficulty",IF(F15="Normal","on normal+ difficulty",IF(F15="Hard","on hard difficulty",""))) &amp;IF(G15="Game Over",", resets on new game",IF(G15="Session",", resets on new session",""))</f>
+        <v>Complete the game without dying on normal+ difficulty</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -1568,8 +1568,8 @@
         <v>91</v>
       </c>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Complete the game without dying (on hard difficulty)</v>
+        <f t="shared" si="2"/>
+        <v>Complete the game without dying on hard difficulty</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -1600,8 +1600,8 @@
         <v>72</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Destroy 100 Enemies (on normal+ difficulty, resets on new session)</v>
+        <f>H17&amp;" "&amp; IF(F17="Easy","on easy+ difficulty",IF(F17="Normal","on normal+ difficulty",IF(F17="Hard","on hard difficulty",""))) &amp;IF(G17="Game Over",", resets on new game",IF(G17="Session",", resets on new session",""))</f>
+        <v>Destroy 100 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -1632,8 +1632,8 @@
         <v>190</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Destroy 250 Enemies (on normal+ difficulty, resets on new session)</v>
+        <f t="shared" ref="I18:I20" si="3">H18&amp;" "&amp; IF(F18="Easy","on easy+ difficulty",IF(F18="Normal","on normal+ difficulty",IF(F18="Hard","on hard difficulty",""))) &amp;IF(G18="Game Over",", resets on new game",IF(G18="Session",", resets on new session",""))</f>
+        <v>Destroy 250 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -1664,8 +1664,8 @@
         <v>191</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Destroy 500 Enemies (on normal+ difficulty, resets on new session)</v>
+        <f t="shared" si="3"/>
+        <v>Destroy 500 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -1696,8 +1696,8 @@
         <v>199</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Destroy 1000 Enemies (on normal+ difficulty, resets on new session)</v>
+        <f t="shared" si="3"/>
+        <v>Destroy 1000 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -1728,8 +1728,8 @@
         <v>62</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat the multi-faced mini boss in stage 1 (on normal+ difficulty)</v>
+        <f>H21&amp;" "&amp; IF(F21="Easy","on easy+ difficulty",IF(F21="Normal","on normal+ difficulty",IF(F21="Hard","on hard difficulty",""))) &amp;IF(G21="Game Over",", resets on new game",IF(G21="Session",", resets on new session",""))</f>
+        <v>Beat the multi-faced mini boss in stage 1 on normal+ difficulty</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>78</v>
@@ -1762,8 +1762,8 @@
         <v>63</v>
       </c>
       <c r="I22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat the dragon mini boss in stage 2 (on normal+ difficulty)</v>
+        <f t="shared" ref="I22:I23" si="4">H22&amp;" "&amp; IF(F22="Easy","on easy+ difficulty",IF(F22="Normal","on normal+ difficulty",IF(F22="Hard","on hard difficulty",""))) &amp;IF(G22="Game Over",", resets on new game",IF(G22="Session",", resets on new session",""))</f>
+        <v>Beat the dragon mini boss in stage 2 on normal+ difficulty</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>76</v>
@@ -1796,8 +1796,8 @@
         <v>92</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat the guardian mini boss in stage 4 (on normal+ difficulty)</v>
+        <f t="shared" si="4"/>
+        <v>Beat the guardian mini boss in stage 4 on normal+ difficulty</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>93</v>
@@ -1830,8 +1830,8 @@
         <v>65</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat stage 1 boss (on normal+ difficulty)</v>
+        <f>H24&amp;" "&amp; IF(F24="Easy","on easy+ difficulty",IF(F24="Normal","on normal+ difficulty",IF(F24="Hard","on hard difficulty",""))) &amp;IF(G24="Game Over",", resets on new game",IF(G24="Session",", resets on new session",""))</f>
+        <v>Beat stage 1 boss on normal+ difficulty</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>71</v>
@@ -1864,8 +1864,8 @@
         <v>66</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat stage 2 boss (on normal+ difficulty)</v>
+        <f t="shared" ref="I25:I29" si="5">H25&amp;" "&amp; IF(F25="Easy","on easy+ difficulty",IF(F25="Normal","on normal+ difficulty",IF(F25="Hard","on hard difficulty",""))) &amp;IF(G25="Game Over",", resets on new game",IF(G25="Session",", resets on new session",""))</f>
+        <v>Beat stage 2 boss on normal+ difficulty</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>81</v>
@@ -1898,8 +1898,8 @@
         <v>67</v>
       </c>
       <c r="I26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat stage 3 boss (on normal+ difficulty)</v>
+        <f t="shared" si="5"/>
+        <v>Beat stage 3 boss on normal+ difficulty</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>80</v>
@@ -1932,8 +1932,8 @@
         <v>68</v>
       </c>
       <c r="I27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat stage 4 boss (on normal+ difficulty)</v>
+        <f t="shared" si="5"/>
+        <v>Beat stage 4 boss on normal+ difficulty</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>79</v>
@@ -1966,8 +1966,8 @@
         <v>69</v>
       </c>
       <c r="I28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat stage 5 boss (on normal+ difficulty)</v>
+        <f t="shared" si="5"/>
+        <v>Beat stage 5 boss on normal+ difficulty</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>82</v>
@@ -2000,8 +2000,8 @@
         <v>70</v>
       </c>
       <c r="I29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat stage 6 boss (on normal+ difficulty)</v>
+        <f t="shared" si="5"/>
+        <v>Beat stage 6 boss on normal+ difficulty</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>83</v>
@@ -2034,8 +2034,8 @@
         <v>43</v>
       </c>
       <c r="I30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Score 100k or higher (on normal+ difficulty, resets on new game)</v>
+        <f>H30&amp;" "&amp; IF(F30="Easy","on easy+ difficulty",IF(F30="Normal","on normal+ difficulty",IF(F30="Hard","on hard difficulty",""))) &amp;IF(G30="Game Over",", resets on new game",IF(G30="Session",", resets on new session",""))</f>
+        <v>Score 100k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J30" s="5"/>
     </row>
@@ -2066,8 +2066,8 @@
         <v>44</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Score 200k or higher (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" ref="I31:I34" si="6">H31&amp;" "&amp; IF(F31="Easy","on easy+ difficulty",IF(F31="Normal","on normal+ difficulty",IF(F31="Hard","on hard difficulty",""))) &amp;IF(G31="Game Over",", resets on new game",IF(G31="Session",", resets on new session",""))</f>
+        <v>Score 200k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -2098,8 +2098,8 @@
         <v>45</v>
       </c>
       <c r="I32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Score 300k or higher (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="6"/>
+        <v>Score 300k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -2130,8 +2130,8 @@
         <v>46</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Score 400k or higher (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="6"/>
+        <v>Score 400k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -2162,8 +2162,8 @@
         <v>47</v>
       </c>
       <c r="I34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Score 500k or higher (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="6"/>
+        <v>Score 500k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J34" s="5"/>
     </row>
@@ -2194,8 +2194,8 @@
         <v>58</v>
       </c>
       <c r="I35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find a Bowwow in stage 1 (on normal+ difficulty, resets on new game)</v>
+        <f>H35&amp;" "&amp; IF(F35="Easy","on easy+ difficulty",IF(F35="Normal","on normal+ difficulty",IF(F35="Hard","on hard difficulty",""))) &amp;IF(G35="Game Over",", resets on new game",IF(G35="Session",", resets on new session",""))</f>
+        <v>Find a Bowwow in stage 1 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>77</v>
@@ -2228,8 +2228,8 @@
         <v>57</v>
       </c>
       <c r="I36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find a Bowwow and a Mirow in stage 2 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" ref="I36:I46" si="7">H36&amp;" "&amp; IF(F36="Easy","on easy+ difficulty",IF(F36="Normal","on normal+ difficulty",IF(F36="Hard","on hard difficulty",""))) &amp;IF(G36="Game Over",", resets on new game",IF(G36="Session",", resets on new session",""))</f>
+        <v>Find a Bowwow and a Mirow in stage 2 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>76</v>
@@ -2262,8 +2262,8 @@
         <v>54</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find two Bowwows and a Mirow in stage 3 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find two Bowwows and a Mirow in stage 3 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>94</v>
@@ -2296,8 +2296,8 @@
         <v>56</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find a Bowwow and two Mirows in stage 4 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find a Bowwow and two Mirows in stage 4 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>95</v>
@@ -2330,8 +2330,8 @@
         <v>55</v>
       </c>
       <c r="I39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find three Bowwows and two Mirows in stage 5 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find three Bowwows and two Mirows in stage 5 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J39" s="5"/>
     </row>
@@ -2362,8 +2362,8 @@
         <v>59</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find three Bowwows and three Mirows in stage 6 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find three Bowwows and three Mirows in stage 6 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J40" s="5"/>
     </row>
@@ -2394,8 +2394,8 @@
         <v>202</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find a hidden miniature house, grabber, Game Boy, Virtual Boy, and VB controller in stage 1 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find a hidden miniature house, grabber, Game Boy, Virtual Boy, and VB controller in stage 1 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>78</v>
@@ -2428,8 +2428,8 @@
         <v>201</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find a hidden fish and bikini woman in stage 2 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find a hidden fish and bikini woman in stage 2 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>76</v>
@@ -2462,8 +2462,8 @@
         <v>61</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find a hidden hermit crab in stage 3 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find a hidden hermit crab in stage 3 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>94</v>
@@ -2496,8 +2496,8 @@
         <v>208</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find four fox busts, two flowers, and two fox statues in stage 4 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find four fox busts, two flowers, and two fox statues in stage 4 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>93</v>
@@ -2530,8 +2530,8 @@
         <v>204</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find the hidden man with a flag in stage 5 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find the hidden man with a flag in stage 5 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J45" s="5"/>
     </row>
@@ -2562,8 +2562,8 @@
         <v>203</v>
       </c>
       <c r="I46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Find the bikini woman and free the alien in stage 6 (on normal+ difficulty, resets on new game)</v>
+        <f t="shared" si="7"/>
+        <v>Find the bikini woman and free the alien in stage 6 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="J46" s="5"/>
     </row>
@@ -2594,8 +2594,8 @@
         <v>86</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Get a booster upgrade (on easy+ difficulty)</v>
+        <f>H47&amp;" "&amp; IF(F47="Easy","on easy+ difficulty",IF(F47="Normal","on normal+ difficulty",IF(F47="Hard","on hard difficulty",""))) &amp;IF(G47="Game Over",", resets on new game",IF(G47="Session",", resets on new session",""))</f>
+        <v>Get a booster upgrade on easy+ difficulty</v>
       </c>
       <c r="J47" s="5"/>
     </row>
@@ -2626,8 +2626,8 @@
         <v>89</v>
       </c>
       <c r="I48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Have four booster upgrades at once (on easy+ difficulty)</v>
+        <f t="shared" ref="I48:I56" si="8">H48&amp;" "&amp; IF(F48="Easy","on easy+ difficulty",IF(F48="Normal","on normal+ difficulty",IF(F48="Hard","on hard difficulty",""))) &amp;IF(G48="Game Over",", resets on new game",IF(G48="Session",", resets on new session",""))</f>
+        <v>Have four booster upgrades at once on easy+ difficulty</v>
       </c>
       <c r="J48" s="5"/>
     </row>
@@ -2658,8 +2658,8 @@
         <v>209</v>
       </c>
       <c r="I49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Go turbo speed (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Go turbo speed on easy+ difficulty</v>
       </c>
       <c r="J49" s="5"/>
     </row>
@@ -2690,8 +2690,8 @@
         <v>99</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Get a missile upgrade (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Get a missile upgrade on easy+ difficulty</v>
       </c>
       <c r="J50" s="5"/>
     </row>
@@ -2722,8 +2722,8 @@
         <v>96</v>
       </c>
       <c r="I51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Have four missile upgrades at once (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Have four missile upgrades at once on easy+ difficulty</v>
       </c>
       <c r="J51" s="5"/>
     </row>
@@ -2754,8 +2754,8 @@
         <v>198</v>
       </c>
       <c r="I52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Restore your sheilds (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Restore your sheilds on easy+ difficulty</v>
       </c>
       <c r="J52" s="5"/>
     </row>
@@ -2786,8 +2786,8 @@
         <v>153</v>
       </c>
       <c r="I53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat a boss with no sheilds remaining (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Beat a boss with no sheilds remaining on easy+ difficulty</v>
       </c>
       <c r="J53" s="5"/>
     </row>
@@ -2818,8 +2818,8 @@
         <v>154</v>
       </c>
       <c r="I54" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat a boss with 10 sheilds remaining (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Beat a boss with 10 sheilds remaining on easy+ difficulty</v>
       </c>
       <c r="J54" s="5"/>
     </row>
@@ -2850,8 +2850,8 @@
         <v>206</v>
       </c>
       <c r="I55" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat stage 1 with 500,000 or more fuel remainging (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Beat stage 1 with 500,000 or more fuel remainging on easy+ difficulty</v>
       </c>
       <c r="J55" s="5"/>
     </row>
@@ -2882,8 +2882,8 @@
         <v>205</v>
       </c>
       <c r="I56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beat any stage with 100,000 or less fuel remainging (on easy+ difficulty)</v>
+        <f t="shared" si="8"/>
+        <v>Beat any stage with 100,000 or less fuel remainging on easy+ difficulty</v>
       </c>
       <c r="J56" s="5"/>
     </row>
@@ -2914,8 +2914,8 @@
         <v>211</v>
       </c>
       <c r="I57" s="8" t="str">
-        <f>H57&amp;" ("&amp; IF(F57="Easy","on easy+ difficulty",IF(F57="Normal","on normal+ difficulty",IF(F57="Hard","on hard difficulty",""))) &amp;IF(G57="Game Over",", resets on new game",IF(G57="Session",", resets on new session",""))&amp;")"</f>
-        <v>Consume less than 4,000,000 fuel in a game (on easy+ difficulty, resets on new game)</v>
+        <f>H57&amp;" "&amp; IF(F57="Easy","on easy+ difficulty",IF(F57="Normal","on normal+ difficulty",IF(F57="Hard","on hard difficulty",""))) &amp;IF(G57="Game Over",", resets on new game",IF(G57="Session",", resets on new session",""))</f>
+        <v>Consume less than 4,000,000 fuel in a game on easy+ difficulty, resets on new game</v>
       </c>
       <c r="J57" s="5"/>
     </row>
@@ -2946,8 +2946,8 @@
         <v>73</v>
       </c>
       <c r="I58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Dodge 50 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <f>H58&amp;" "&amp; IF(F58="Easy","on easy+ difficulty",IF(F58="Normal","on normal+ difficulty",IF(F58="Hard","on hard difficulty",""))) &amp;IF(G58="Game Over",", resets on new game",IF(G58="Session",", resets on new session",""))</f>
+        <v>Dodge 50 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="J58" s="5"/>
     </row>
@@ -2978,8 +2978,8 @@
         <v>85</v>
       </c>
       <c r="I59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Dodge 100 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <f t="shared" ref="I59:I61" si="9">H59&amp;" "&amp; IF(F59="Easy","on easy+ difficulty",IF(F59="Normal","on normal+ difficulty",IF(F59="Hard","on hard difficulty",""))) &amp;IF(G59="Game Over",", resets on new game",IF(G59="Session",", resets on new session",""))</f>
+        <v>Dodge 100 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="J59" s="5"/>
     </row>
@@ -3010,8 +3010,8 @@
         <v>200</v>
       </c>
       <c r="I60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Dodge 250 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <f t="shared" si="9"/>
+        <v>Dodge 250 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="J60" s="5"/>
     </row>
@@ -3042,8 +3042,8 @@
         <v>210</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Dodge 500 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <f t="shared" si="9"/>
+        <v>Dodge 500 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="J61" s="5"/>
     </row>
@@ -4577,7 +4577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>Achievements!I2</f>
-        <v>Complete stage 1 (on easy+ difficulty)</v>
+        <v>Complete stage 1 on easy+ difficulty</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>Achievements!I3</f>
-        <v>Complete stage 2 (on easy+ difficulty)</v>
+        <v>Complete stage 2 on easy+ difficulty</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>20</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C4" s="8" t="str">
         <f>Achievements!I4</f>
-        <v>Complete stage 3 (on easy+ difficulty)</v>
+        <v>Complete stage 3 on easy+ difficulty</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="C5" s="8" t="str">
         <f>Achievements!I5</f>
-        <v>Complete stage 4 (on easy+ difficulty)</v>
+        <v>Complete stage 4 on easy+ difficulty</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="C6" s="8" t="str">
         <f>Achievements!I6</f>
-        <v>Complete stage 5 (on easy+ difficulty)</v>
+        <v>Complete stage 5 on easy+ difficulty</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="C7" s="8" t="str">
         <f>Achievements!I7</f>
-        <v>Complete stage 6 (on easy+ difficulty)</v>
+        <v>Complete stage 6 on easy+ difficulty</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="C8" s="8" t="str">
         <f>Achievements!I8</f>
-        <v>Complete stage 1 without dying (on hard difficulty)</v>
+        <v>Complete stage 1 without dying on hard difficulty</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="C9" s="8" t="str">
         <f>Achievements!I9</f>
-        <v>Complete stage 2 without dying (on hard difficulty)</v>
+        <v>Complete stage 2 without dying on hard difficulty</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C10" s="8" t="str">
         <f>Achievements!I10</f>
-        <v>Complete stage 3 without dying (on hard difficulty)</v>
+        <v>Complete stage 3 without dying on hard difficulty</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C11" s="8" t="str">
         <f>Achievements!I11</f>
-        <v>Complete stage 4 without dying (on hard difficulty)</v>
+        <v>Complete stage 4 without dying on hard difficulty</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C12" s="8" t="str">
         <f>Achievements!I12</f>
-        <v>Complete stage 5 without dying (on hard difficulty)</v>
+        <v>Complete stage 5 without dying on hard difficulty</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>20</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C13" s="8" t="str">
         <f>Achievements!I13</f>
-        <v>Complete stage 6 without dying (on hard difficulty)</v>
+        <v>Complete stage 6 without dying on hard difficulty</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>20</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="C14" s="8" t="str">
         <f>Achievements!I14</f>
-        <v>Complete the game without dying (on easy+ difficulty)</v>
+        <v>Complete the game without dying on easy+ difficulty</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="C15" s="8" t="str">
         <f>Achievements!I15</f>
-        <v>Complete the game without dying (on normal+ difficulty)</v>
+        <v>Complete the game without dying on normal+ difficulty</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>20</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C16" s="8" t="str">
         <f>Achievements!I16</f>
-        <v>Complete the game without dying (on hard difficulty)</v>
+        <v>Complete the game without dying on hard difficulty</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>20</v>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C17" s="8" t="str">
         <f>Achievements!I17</f>
-        <v>Destroy 100 Enemies (on normal+ difficulty, resets on new session)</v>
+        <v>Destroy 100 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>20</v>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="C18" s="8" t="str">
         <f>Achievements!I18</f>
-        <v>Destroy 250 Enemies (on normal+ difficulty, resets on new session)</v>
+        <v>Destroy 250 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>20</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C19" s="8" t="str">
         <f>Achievements!I19</f>
-        <v>Destroy 500 Enemies (on normal+ difficulty, resets on new session)</v>
+        <v>Destroy 500 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>20</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C20" s="8" t="str">
         <f>Achievements!I20</f>
-        <v>Destroy 1000 Enemies (on normal+ difficulty, resets on new session)</v>
+        <v>Destroy 1000 Enemies on normal+ difficulty, resets on new session</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>20</v>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="C21" s="8" t="str">
         <f>Achievements!I21</f>
-        <v>Beat the multi-faced mini boss in stage 1 (on normal+ difficulty)</v>
+        <v>Beat the multi-faced mini boss in stage 1 on normal+ difficulty</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>20</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="C22" s="8" t="str">
         <f>Achievements!I22</f>
-        <v>Beat the dragon mini boss in stage 2 (on normal+ difficulty)</v>
+        <v>Beat the dragon mini boss in stage 2 on normal+ difficulty</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>20</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="C23" s="8" t="str">
         <f>Achievements!I23</f>
-        <v>Beat the guardian mini boss in stage 4 (on normal+ difficulty)</v>
+        <v>Beat the guardian mini boss in stage 4 on normal+ difficulty</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>20</v>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="C24" s="8" t="str">
         <f>Achievements!I24</f>
-        <v>Beat stage 1 boss (on normal+ difficulty)</v>
+        <v>Beat stage 1 boss on normal+ difficulty</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>20</v>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C25" s="8" t="str">
         <f>Achievements!I25</f>
-        <v>Beat stage 2 boss (on normal+ difficulty)</v>
+        <v>Beat stage 2 boss on normal+ difficulty</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>20</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="C26" s="8" t="str">
         <f>Achievements!I26</f>
-        <v>Beat stage 3 boss (on normal+ difficulty)</v>
+        <v>Beat stage 3 boss on normal+ difficulty</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="C27" s="8" t="str">
         <f>Achievements!I27</f>
-        <v>Beat stage 4 boss (on normal+ difficulty)</v>
+        <v>Beat stage 4 boss on normal+ difficulty</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>20</v>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="C28" s="8" t="str">
         <f>Achievements!I28</f>
-        <v>Beat stage 5 boss (on normal+ difficulty)</v>
+        <v>Beat stage 5 boss on normal+ difficulty</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>20</v>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C29" s="8" t="str">
         <f>Achievements!I29</f>
-        <v>Beat stage 6 boss (on normal+ difficulty)</v>
+        <v>Beat stage 6 boss on normal+ difficulty</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>20</v>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C30" s="8" t="str">
         <f>Achievements!I30</f>
-        <v>Score 100k or higher (on normal+ difficulty, resets on new game)</v>
+        <v>Score 100k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>20</v>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C31" s="8" t="str">
         <f>Achievements!I31</f>
-        <v>Score 200k or higher (on normal+ difficulty, resets on new game)</v>
+        <v>Score 200k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>20</v>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="C32" s="8" t="str">
         <f>Achievements!I32</f>
-        <v>Score 300k or higher (on normal+ difficulty, resets on new game)</v>
+        <v>Score 300k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>20</v>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C33" s="8" t="str">
         <f>Achievements!I33</f>
-        <v>Score 400k or higher (on normal+ difficulty, resets on new game)</v>
+        <v>Score 400k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>20</v>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="C34" s="8" t="str">
         <f>Achievements!I34</f>
-        <v>Score 500k or higher (on normal+ difficulty, resets on new game)</v>
+        <v>Score 500k or higher on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>20</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="C35" s="8" t="str">
         <f>Achievements!I35</f>
-        <v>Find a Bowwow in stage 1 (on normal+ difficulty, resets on new game)</v>
+        <v>Find a Bowwow in stage 1 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>20</v>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="C36" s="8" t="str">
         <f>Achievements!I36</f>
-        <v>Find a Bowwow and a Mirow in stage 2 (on normal+ difficulty, resets on new game)</v>
+        <v>Find a Bowwow and a Mirow in stage 2 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>20</v>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C37" s="8" t="str">
         <f>Achievements!I37</f>
-        <v>Find two Bowwows and a Mirow in stage 3 (on normal+ difficulty, resets on new game)</v>
+        <v>Find two Bowwows and a Mirow in stage 3 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>20</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="C38" s="8" t="str">
         <f>Achievements!I38</f>
-        <v>Find a Bowwow and two Mirows in stage 4 (on normal+ difficulty, resets on new game)</v>
+        <v>Find a Bowwow and two Mirows in stage 4 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>20</v>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="C39" s="8" t="str">
         <f>Achievements!I39</f>
-        <v>Find three Bowwows and two Mirows in stage 5 (on normal+ difficulty, resets on new game)</v>
+        <v>Find three Bowwows and two Mirows in stage 5 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>20</v>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="C40" s="8" t="str">
         <f>Achievements!I40</f>
-        <v>Find three Bowwows and three Mirows in stage 6 (on normal+ difficulty, resets on new game)</v>
+        <v>Find three Bowwows and three Mirows in stage 6 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>20</v>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="C41" s="8" t="str">
         <f>Achievements!I41</f>
-        <v>Find a hidden miniature house, grabber, Game Boy, Virtual Boy, and VB controller in stage 1 (on normal+ difficulty, resets on new game)</v>
+        <v>Find a hidden miniature house, grabber, Game Boy, Virtual Boy, and VB controller in stage 1 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>20</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="C42" s="8" t="str">
         <f>Achievements!I42</f>
-        <v>Find a hidden fish and bikini woman in stage 2 (on normal+ difficulty, resets on new game)</v>
+        <v>Find a hidden fish and bikini woman in stage 2 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>20</v>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="C43" s="8" t="str">
         <f>Achievements!I43</f>
-        <v>Find a hidden hermit crab in stage 3 (on normal+ difficulty, resets on new game)</v>
+        <v>Find a hidden hermit crab in stage 3 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>20</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="C44" s="8" t="str">
         <f>Achievements!I44</f>
-        <v>Find four fox busts, two flowers, and two fox statues in stage 4 (on normal+ difficulty, resets on new game)</v>
+        <v>Find four fox busts, two flowers, and two fox statues in stage 4 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>20</v>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="C45" s="8" t="str">
         <f>Achievements!I45</f>
-        <v>Find the hidden man with a flag in stage 5 (on normal+ difficulty, resets on new game)</v>
+        <v>Find the hidden man with a flag in stage 5 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>20</v>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="C46" s="8" t="str">
         <f>Achievements!I46</f>
-        <v>Find the bikini woman and free the alien in stage 6 (on normal+ difficulty, resets on new game)</v>
+        <v>Find the bikini woman and free the alien in stage 6 on normal+ difficulty, resets on new game</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>20</v>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C47" s="8" t="str">
         <f>Achievements!I47</f>
-        <v>Get a booster upgrade (on easy+ difficulty)</v>
+        <v>Get a booster upgrade on easy+ difficulty</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>20</v>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="C48" s="8" t="str">
         <f>Achievements!I48</f>
-        <v>Have four booster upgrades at once (on easy+ difficulty)</v>
+        <v>Have four booster upgrades at once on easy+ difficulty</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>20</v>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C49" s="8" t="str">
         <f>Achievements!I49</f>
-        <v>Go turbo speed (on easy+ difficulty)</v>
+        <v>Go turbo speed on easy+ difficulty</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>20</v>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="C50" s="8" t="str">
         <f>Achievements!I50</f>
-        <v>Get a missile upgrade (on easy+ difficulty)</v>
+        <v>Get a missile upgrade on easy+ difficulty</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>20</v>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C51" s="8" t="str">
         <f>Achievements!I51</f>
-        <v>Have four missile upgrades at once (on easy+ difficulty)</v>
+        <v>Have four missile upgrades at once on easy+ difficulty</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>20</v>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="C52" s="8" t="str">
         <f>Achievements!I52</f>
-        <v>Restore your sheilds (on easy+ difficulty)</v>
+        <v>Restore your sheilds on easy+ difficulty</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>20</v>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="C53" s="8" t="str">
         <f>Achievements!I53</f>
-        <v>Beat a boss with no sheilds remaining (on easy+ difficulty)</v>
+        <v>Beat a boss with no sheilds remaining on easy+ difficulty</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C54" s="8" t="str">
         <f>Achievements!I54</f>
-        <v>Beat a boss with 10 sheilds remaining (on easy+ difficulty)</v>
+        <v>Beat a boss with 10 sheilds remaining on easy+ difficulty</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>20</v>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="C55" s="8" t="str">
         <f>Achievements!I55</f>
-        <v>Beat stage 1 with 500,000 or more fuel remainging (on easy+ difficulty)</v>
+        <v>Beat stage 1 with 500,000 or more fuel remainging on easy+ difficulty</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>20</v>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="C56" s="8" t="str">
         <f>Achievements!I56</f>
-        <v>Beat any stage with 100,000 or less fuel remainging (on easy+ difficulty)</v>
+        <v>Beat any stage with 100,000 or less fuel remainging on easy+ difficulty</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>20</v>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="C57" s="8" t="str">
         <f>Achievements!I57</f>
-        <v>Consume less than 4,000,000 fuel in a game (on easy+ difficulty, resets on new game)</v>
+        <v>Consume less than 4,000,000 fuel in a game on easy+ difficulty, resets on new game</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>20</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="C58" s="8" t="str">
         <f>Achievements!I58</f>
-        <v>Dodge 50 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <v>Dodge 50 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>20</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C59" s="8" t="str">
         <f>Achievements!I59</f>
-        <v>Dodge 100 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <v>Dodge 100 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>20</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="C60" s="8" t="str">
         <f>Achievements!I60</f>
-        <v>Dodge 250 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <v>Dodge 250 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>20</v>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="C61" s="8" t="str">
         <f>Achievements!I61</f>
-        <v>Dodge 500 Projectiles (on easy+ difficulty, resets on new session)</v>
+        <v>Dodge 500 Projectiles on easy+ difficulty, resets on new session</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>20</v>
@@ -6708,7 +6708,7 @@
         <v>60 /60</v>
       </c>
       <c r="E62" s="8" t="str">
-        <f t="shared" ref="E62:I62" si="4">COUNTIF(E2:E61,"X")&amp;" /60"</f>
+        <f t="shared" ref="E62:H62" si="4">COUNTIF(E2:E61,"X")&amp;" /60"</f>
         <v>60 /60</v>
       </c>
       <c r="F62" s="8" t="str">
@@ -6786,361 +6786,361 @@
     <row r="3" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="str">
         <f ca="1">"achievement("&amp;CHAR(34)&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;INDIRECT("Achievements!I"&amp;(ROW()-1))&amp;CHAR(34)&amp;", "&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;", trigger)"</f>
-        <v>achievement("Docking Bay","Complete stage 1 (on easy+ difficulty)", 2, trigger)</v>
+        <v>achievement("Docking Bay","Complete stage 1 on easy+ difficulty", 2, trigger)</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">"achievement("&amp;CHAR(34)&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;INDIRECT("Achievements!I"&amp;(ROW()-1))&amp;CHAR(34)&amp;", "&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;", trigger)"</f>
-        <v>achievement("Underground Cave","Complete stage 2 (on easy+ difficulty)", 2, trigger)</v>
+        <v>achievement("Underground Cave","Complete stage 2 on easy+ difficulty", 2, trigger)</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Underwater Passage","Complete stage 3 (on easy+ difficulty)", 3, trigger)</v>
+        <v>achievement("Underwater Passage","Complete stage 3 on easy+ difficulty", 3, trigger)</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Ancient Temple","Complete stage 4 (on easy+ difficulty)", 3, trigger)</v>
+        <v>achievement("Ancient Temple","Complete stage 4 on easy+ difficulty", 3, trigger)</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Fortress Defenses","Complete stage 5 (on easy+ difficulty)", 5, trigger)</v>
+        <v>achievement("Fortress Defenses","Complete stage 5 on easy+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Mainframe","Complete stage 6 (on easy+ difficulty)", 10, trigger)</v>
+        <v>achievement("Mainframe","Complete stage 6 on easy+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Docking Bay Ace","Complete stage 1 without dying (on hard difficulty)", 10, trigger)</v>
+        <v>achievement("Docking Bay Ace","Complete stage 1 without dying on hard difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Underground Cave Ace","Complete stage 2 without dying (on hard difficulty)", 10, trigger)</v>
+        <v>achievement("Underground Cave Ace","Complete stage 2 without dying on hard difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Underwater Passage Ace","Complete stage 3 without dying (on hard difficulty)", 10, trigger)</v>
+        <v>achievement("Underwater Passage Ace","Complete stage 3 without dying on hard difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Ancient Temple Ace","Complete stage 4 without dying (on hard difficulty)", 10, trigger)</v>
+        <v>achievement("Ancient Temple Ace","Complete stage 4 without dying on hard difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Fortress Defenses Ace","Complete stage 5 without dying (on hard difficulty)", 10, trigger)</v>
+        <v>achievement("Fortress Defenses Ace","Complete stage 5 without dying on hard difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Mainframe Ace","Complete stage 6 without dying (on hard difficulty)", 25, trigger)</v>
+        <v>achievement("Mainframe Ace","Complete stage 6 without dying on hard difficulty", 25, trigger)</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Easy Game Ace","Complete the game without dying (on easy+ difficulty)", 10, trigger)</v>
+        <v>achievement("Easy Game Ace","Complete the game without dying on easy+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Normal Game Ace","Complete the game without dying (on normal+ difficulty)", 25, trigger)</v>
+        <v>achievement("Normal Game Ace","Complete the game without dying on normal+ difficulty", 25, trigger)</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Hard Game Ace","Complete the game without dying (on hard difficulty)", 50, trigger)</v>
+        <v>achievement("Hard Game Ace","Complete the game without dying on hard difficulty", 50, trigger)</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Bronze Star Medal","Destroy 100 Enemies (on normal+ difficulty, resets on new session)", 2, trigger)</v>
+        <v>achievement("Bronze Star Medal","Destroy 100 Enemies on normal+ difficulty, resets on new session", 2, trigger)</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Silver Star Medal","Destroy 250 Enemies (on normal+ difficulty, resets on new session)", 3, trigger)</v>
+        <v>achievement("Silver Star Medal","Destroy 250 Enemies on normal+ difficulty, resets on new session", 3, trigger)</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Distinguished Flying Cross","Destroy 500 Enemies (on normal+ difficulty, resets on new session)", 5, trigger)</v>
+        <v>achievement("Distinguished Flying Cross","Destroy 500 Enemies on normal+ difficulty, resets on new session", 5, trigger)</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Medal of Honor","Destroy 1000 Enemies (on normal+ difficulty, resets on new session)", 10, trigger)</v>
+        <v>achievement("Medal of Honor","Destroy 1000 Enemies on normal+ difficulty, resets on new session", 10, trigger)</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Man-E-Faces ","Beat the multi-faced mini boss in stage 1 (on normal+ difficulty)", 5, trigger)</v>
+        <v>achievement("Man-E-Faces ","Beat the multi-faced mini boss in stage 1 on normal+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Heilong ","Beat the dragon mini boss in stage 2 (on normal+ difficulty)", 5, trigger)</v>
+        <v>achievement("Heilong ","Beat the dragon mini boss in stage 2 on normal+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Temple Guardian","Beat the guardian mini boss in stage 4 (on normal+ difficulty)", 5, trigger)</v>
+        <v>achievement("Temple Guardian","Beat the guardian mini boss in stage 4 on normal+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Hork Lander","Beat stage 1 boss (on normal+ difficulty)", 10, trigger)</v>
+        <v>achievement("Hork Lander","Beat stage 1 boss on normal+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Barabary","Beat stage 2 boss (on normal+ difficulty)", 10, trigger)</v>
+        <v>achievement("Barabary","Beat stage 2 boss on normal+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="27" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Karkinos","Beat stage 3 boss (on normal+ difficulty)", 10, trigger)</v>
+        <v>achievement("Karkinos","Beat stage 3 boss on normal+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Mechatotem","Beat stage 4 boss (on normal+ difficulty)", 10, trigger)</v>
+        <v>achievement("Mechatotem","Beat stage 4 boss on normal+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Battle Angel Mech","Beat stage 5 boss (on normal+ difficulty)", 10, trigger)</v>
+        <v>achievement("Battle Angel Mech","Beat stage 5 boss on normal+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="30" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("KAOS","Beat stage 6 boss (on normal+ difficulty)", 10, trigger)</v>
+        <v>achievement("KAOS","Beat stage 6 boss on normal+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Space Cadet","Score 100k or higher (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Space Cadet","Score 100k or higher on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="32" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Warrant Officer","Score 200k or higher (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Warrant Officer","Score 200k or higher on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Lieutenant","Score 300k or higher (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Lieutenant","Score 300k or higher on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Squadron Leader","Score 400k or higher (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Squadron Leader","Score 400k or higher on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Wing Commander","Score 500k or higher (on normal+ difficulty, resets on new game)", 25, trigger)</v>
+        <v>achievement("Wing Commander","Score 500k or higher on normal+ difficulty, resets on new game", 25, trigger)</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Puppy Bonus","Find a Bowwow in stage 1 (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Puppy Bonus","Find a Bowwow in stage 1 on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="37" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Kitty Bonus","Find a Bowwow and a Mirow in stage 2 (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Kitty Bonus","Find a Bowwow and a Mirow in stage 2 on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Seapuppies Bonus","Find two Bowwows and a Mirow in stage 3 (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Seapuppies Bonus","Find two Bowwows and a Mirow in stage 3 on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="39" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Cat's Eye Bonus","Find a Bowwow and two Mirows in stage 4 (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Cat's Eye Bonus","Find a Bowwow and two Mirows in stage 4 on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Guard Dog Bonus","Find three Bowwows and two Mirows in stage 5 (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Guard Dog Bonus","Find three Bowwows and two Mirows in stage 5 on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Final Bonus","Find three Bowwows and three Mirows in stage 6 (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Final Bonus","Find three Bowwows and three Mirows in stage 6 on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Little House on the Docking Bay","Find a hidden miniature house, grabber, Game Boy, Virtual Boy, and VB controller in stage 1 (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Little House on the Docking Bay","Find a hidden miniature house, grabber, Game Boy, Virtual Boy, and VB controller in stage 1 on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Upstream Battle","Find a hidden fish and bikini woman in stage 2 (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Upstream Battle","Find a hidden fish and bikini woman in stage 2 on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Under da Sea","Find a hidden hermit crab in stage 3 (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Under da Sea","Find a hidden hermit crab in stage 3 on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Clan McCloud","Find four fox busts, two flowers, and two fox statues in stage 4 (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Clan McCloud","Find four fox busts, two flowers, and two fox statues in stage 4 on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Down the Homestretch","Find the hidden man with a flag in stage 5 (on normal+ difficulty, resets on new game)", 5, trigger)</v>
+        <v>achievement("Down the Homestretch","Find the hidden man with a flag in stage 5 on normal+ difficulty, resets on new game", 5, trigger)</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Extra Terrestrial","Find the bikini woman and free the alien in stage 6 (on normal+ difficulty, resets on new game)", 10, trigger)</v>
+        <v>achievement("Extra Terrestrial","Find the bikini woman and free the alien in stage 6 on normal+ difficulty, resets on new game", 10, trigger)</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Booster Upgrade","Get a booster upgrade (on easy+ difficulty)", 1, trigger)</v>
+        <v>achievement("Booster Upgrade","Get a booster upgrade on easy+ difficulty", 1, trigger)</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Super Booster Upgrade","Have four booster upgrades at once (on easy+ difficulty)", 10, trigger)</v>
+        <v>achievement("Super Booster Upgrade","Have four booster upgrades at once on easy+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Need for Speed","Go turbo speed (on easy+ difficulty)", 2, trigger)</v>
+        <v>achievement("Need for Speed","Go turbo speed on easy+ difficulty", 2, trigger)</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Missile Upgrade","Get a missile upgrade (on easy+ difficulty)", 5, trigger)</v>
+        <v>achievement("Missile Upgrade","Get a missile upgrade on easy+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Full Missile Upgrade","Have four missile upgrades at once (on easy+ difficulty)", 10, trigger)</v>
+        <v>achievement("Full Missile Upgrade","Have four missile upgrades at once on easy+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Power Restored!","Restore your sheilds (on easy+ difficulty)", 2, trigger)</v>
+        <v>achievement("Power Restored!","Restore your sheilds on easy+ difficulty", 2, trigger)</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Skin of your teeth!","Beat a boss with no sheilds remaining (on easy+ difficulty)", 5, trigger)</v>
+        <v>achievement("Skin of your teeth!","Beat a boss with no sheilds remaining on easy+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Untouchable!","Beat a boss with 10 sheilds remaining (on easy+ difficulty)", 10, trigger)</v>
+        <v>achievement("Untouchable!","Beat a boss with 10 sheilds remaining on easy+ difficulty", 10, trigger)</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Stage 1 Speed Run","Beat stage 1 with 500,000 or more fuel remainging (on easy+ difficulty)", 5, trigger)</v>
+        <v>achievement("Stage 1 Speed Run","Beat stage 1 with 500,000 or more fuel remainging on easy+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="57" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Running on Fumes","Beat any stage with 100,000 or less fuel remainging (on easy+ difficulty)", 5, trigger)</v>
+        <v>achievement("Running on Fumes","Beat any stage with 100,000 or less fuel remainging on easy+ difficulty", 5, trigger)</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Fuel Conservationist","Consume less than 4,000,000 fuel in a game (on easy+ difficulty, resets on new game)", 25, trigger)</v>
+        <v>achievement("Fuel Conservationist","Consume less than 4,000,000 fuel in a game on easy+ difficulty, resets on new game", 25, trigger)</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Bullet Time","Dodge 50 Projectiles (on easy+ difficulty, resets on new session)", 2, trigger)</v>
+        <v>achievement("Bullet Time","Dodge 50 Projectiles on easy+ difficulty, resets on new session", 2, trigger)</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Slippery Tactics","Dodge 100 Projectiles (on easy+ difficulty, resets on new session)", 3, trigger)</v>
+        <v>achievement("Slippery Tactics","Dodge 100 Projectiles on easy+ difficulty, resets on new session", 3, trigger)</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Evasive Maneuvers","Dodge 250 Projectiles (on easy+ difficulty, resets on new session)", 5, trigger)</v>
+        <v>achievement("Evasive Maneuvers","Dodge 250 Projectiles on easy+ difficulty, resets on new session", 5, trigger)</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Impossible to Pin Down","Dodge 500 Projectiles (on easy+ difficulty, resets on new session)", 10, trigger)</v>
+        <v>achievement("Impossible to Pin Down","Dodge 500 Projectiles on easy+ difficulty, resets on new session", 10, trigger)</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
